--- a/DataDefinition.xlsx
+++ b/DataDefinition.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>DATEPRD</t>
   </si>
@@ -406,9 +406,6 @@
     </r>
   </si>
   <si>
-    <t>Number of hours of production (Hours)</t>
-  </si>
-  <si>
     <t>Unit (Bar)</t>
   </si>
   <si>
@@ -452,6 +449,66 @@
   </si>
   <si>
     <t>Type of Flow Production or Injection</t>
+  </si>
+  <si>
+    <t>Unit of measure for the average choke setting.</t>
+  </si>
+  <si>
+    <t>Unique identifier for the well bore</t>
+  </si>
+  <si>
+    <t>Name of the well bore as recorded by the NPD</t>
+  </si>
+  <si>
+    <t>Unique identifier for the oil field</t>
+  </si>
+  <si>
+    <t>Name of the oil field</t>
+  </si>
+  <si>
+    <t>Code representing the production facility</t>
+  </si>
+  <si>
+    <t>Name of the production facility</t>
+  </si>
+  <si>
+    <t>Number of hours of production on that day (Hours)</t>
+  </si>
+  <si>
+    <t>Findings</t>
+  </si>
+  <si>
+    <t>all non null</t>
+  </si>
+  <si>
+    <t>all non null and all have same value i.e. 3420717</t>
+  </si>
+  <si>
+    <t>8980 non null values</t>
+  </si>
+  <si>
+    <t>Extra data definition</t>
+  </si>
+  <si>
+    <t>7890 non null values</t>
+  </si>
+  <si>
+    <t>8919 non nulll</t>
+  </si>
+  <si>
+    <t>it has % and blank only.  S, can I remove this</t>
+  </si>
+  <si>
+    <t>9155 values are non null</t>
+  </si>
+  <si>
+    <t>9146 values are non null</t>
+  </si>
+  <si>
+    <t>9161 non nulll</t>
+  </si>
+  <si>
+    <t>5706  non null some of the values are negative also. Are this outliers</t>
   </si>
 </sst>
 </file>
@@ -462,7 +519,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,8 +545,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +577,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -556,12 +631,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,6 +694,43 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,17 +1026,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -901,288 +1047,425 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
+      <c r="C2" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="C4" s="21"/>
+      <c r="D4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="C7" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="30">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
+      <c r="C10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="45">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
+      <c r="C13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
+      <c r="C14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="C15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="C16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="30">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="C18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="C19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="C20" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="C21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="17"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="C22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="30">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>67</v>
-      </c>
+      <c r="C23" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="C24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="30">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="C25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="J26" s="9" t="s">
-        <v>70</v>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DataDefinition.xlsx
+++ b/DataDefinition.xlsx
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,14 +721,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,16 +1031,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43" style="16" customWidth="1"/>
+    <col min="4" max="4" width="43" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1047,10 +1050,10 @@
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="22" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1061,10 +1064,10 @@
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>95</v>
       </c>
       <c r="I2" s="17"/>
@@ -1076,10 +1079,10 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="23" t="s">
         <v>95</v>
       </c>
       <c r="I3" s="17"/>
@@ -1091,8 +1094,8 @@
       <c r="B4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="23" t="s">
         <v>95</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -1107,10 +1110,10 @@
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="23" t="s">
         <v>95</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -1125,10 +1128,10 @@
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="23" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -1143,10 +1146,10 @@
       <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="23" t="s">
         <v>95</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -1161,10 +1164,10 @@
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1172,18 +1175,18 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="30">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>95</v>
+      <c r="D9" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>65</v>
@@ -1197,10 +1200,10 @@
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="23" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -1215,10 +1218,10 @@
       <c r="B11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="23" t="s">
         <v>97</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -1233,10 +1236,10 @@
       <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="23" t="s">
         <v>97</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -1251,10 +1254,10 @@
       <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="23" t="s">
         <v>97</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -1269,7 +1272,7 @@
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="16" t="s">
@@ -1287,7 +1290,7 @@
       <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="16" t="s">
@@ -1302,10 +1305,10 @@
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="I16" s="17"/>
@@ -1318,7 +1321,7 @@
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="16" t="s">
@@ -1334,7 +1337,7 @@
       <c r="B18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="16" t="s">
@@ -1350,7 +1353,7 @@
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D19" s="16" t="s">
@@ -1366,7 +1369,7 @@
       <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="16" t="s">
@@ -1382,7 +1385,7 @@
       <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="16" t="s">
@@ -1398,7 +1401,7 @@
       <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="16" t="s">
@@ -1414,10 +1417,10 @@
       <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>105</v>
       </c>
       <c r="I23" s="17"/>
@@ -1430,7 +1433,7 @@
       <c r="B24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="16" t="s">
@@ -1446,7 +1449,7 @@
       <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D25" s="16" t="s">
